--- a/Reports/Motors/Motors.xlsx
+++ b/Reports/Motors/Motors.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C360768-89DB-46F0-BD65-79230F644ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8328D7-F52D-4B54-97DC-94109A8EC203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drive motors" sheetId="1" r:id="rId1"/>
-    <sheet name="non drive motors" sheetId="5" r:id="rId2"/>
-    <sheet name="CWS" sheetId="6" r:id="rId3"/>
-    <sheet name="CWS-update" sheetId="11" r:id="rId4"/>
-    <sheet name="Motor data" sheetId="15" r:id="rId5"/>
-    <sheet name="CONVEYOR DETAILS" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
+    <sheet name="non drive motors" sheetId="5" r:id="rId3"/>
+    <sheet name="CWS" sheetId="6" r:id="rId4"/>
+    <sheet name="CWS-update" sheetId="11" r:id="rId5"/>
+    <sheet name="Motor data" sheetId="15" r:id="rId6"/>
+    <sheet name="CONVEYOR DETAILS" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">CWS!$B$2:$K$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'CWS-update'!$B$2:$I$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'CONVEYOR DETAILS'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">CWS!$B$2:$K$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'CWS-update'!$B$2:$I$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'CONVEYOR DETAILS'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'drive motors'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="286">
   <si>
     <t>SL</t>
   </si>
@@ -899,13 +900,22 @@
   </si>
   <si>
     <t xml:space="preserve">1 spare motor repaired at CWS is available at CHP. </t>
+  </si>
+  <si>
+    <t>2002043-02</t>
+  </si>
+  <si>
+    <t>28909115-03</t>
+  </si>
+  <si>
+    <t>CHP DRIVE MOTORS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +973,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Daytona"/>
       <family val="2"/>
@@ -1099,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,9 +1160,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1181,7 +1195,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,11 +1206,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDCDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDCDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1585,1388 +1619,1505 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="15.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26">
+      <c r="G4" s="25">
         <v>37</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="21">
+      <c r="I4" s="20">
         <v>1470</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" ref="C5:C43" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="20">
         <v>18</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="25">
         <v>37</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="20">
         <v>1470</v>
       </c>
-      <c r="I5" s="21">
+      <c r="J5" s="20">
         <v>225</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="20">
+        <v>17</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26">
+      <c r="G6" s="25">
         <v>55</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="20">
         <v>1475</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26">
+      <c r="G7" s="25">
         <v>55</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="20">
         <v>1480</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26">
+      <c r="G8" s="25">
         <v>75</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="21">
+      <c r="I8" s="20">
         <v>1480</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26">
+      <c r="G9" s="25">
         <v>75</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="20">
         <v>1480</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26">
+      <c r="G10" s="25">
         <v>90</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="21">
+      <c r="I10" s="20">
         <v>1482</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="26">
+      <c r="G11" s="25">
         <v>90</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="20">
         <v>1485</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="26">
+      <c r="G12" s="25">
         <v>90</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="21">
+      <c r="I12" s="20">
         <v>1480</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="26">
+      <c r="G13" s="25">
         <v>90</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="20">
         <v>1480</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="L13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="20">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26">
+      <c r="G14" s="25">
         <v>90</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="21">
+      <c r="I14" s="20">
         <v>1447</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="20">
+        <v>9</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26">
+      <c r="G15" s="25">
         <v>90</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I15" s="20">
         <v>1447</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="J15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26">
+      <c r="G16" s="25">
         <v>90</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="21">
+      <c r="I16" s="20">
         <v>1447</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="M16" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="19">
+    <row r="17" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="20">
+        <v>11</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="26">
+      <c r="G17" s="25">
         <v>90</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="20">
+      <c r="I17" s="19">
         <v>1500</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="M17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="19">
+    <row r="18" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="20">
+        <v>22</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="26">
+      <c r="G18" s="25">
         <v>90</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="21">
+      <c r="I18" s="20">
         <v>1480</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="M18" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="19">
+    <row r="19" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="25">
+        <v>110</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1471</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="26">
+      <c r="G20" s="25">
+        <v>132</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1485</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="25">
+        <v>132</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1480</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="25">
+        <v>132</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1480</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="20">
+        <v>5</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="25">
+        <v>132</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1480</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="20">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="25">
+        <v>150</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="20">
+        <v>21</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="25">
+        <v>150</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="25">
+        <v>150</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="L26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="20">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="25">
+        <v>200</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="20">
+        <v>23</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="25">
+        <v>200</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="20">
+        <v>25</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="25">
+        <v>200</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1477</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="20">
+        <v>24</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="20">
+        <v>7</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="25">
+        <v>225</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="21">
-        <v>1471</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="I31" s="20">
+        <v>1480</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="20">
+        <v>12</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="25">
+        <v>250</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="20">
+        <v>13</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="25">
+        <v>250</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="18">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="20">
+        <v>14</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="25">
+        <v>250</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1500</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="20">
+        <v>15</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="25">
+        <v>250</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1500</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="20">
+        <v>19</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="25">
+        <v>250</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="20">
+        <v>1480</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="20">
+        <v>30</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="25">
+        <v>250</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="20">
+        <v>1481</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="20">
+        <v>29</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="25">
+        <v>250</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="20">
+        <v>1484</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="20">
+        <v>31</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="25">
+        <v>355</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1490</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="18">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="20">
+        <v>32</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="25">
+        <v>355</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="20">
+        <v>1490</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="25">
+        <v>400</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="20">
+        <v>992</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="18">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="D42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="26">
-        <v>132</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1485</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="G42" s="25">
+        <v>400</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="20">
+        <v>992</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="18">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="D43" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="20">
+        <v>16</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="26">
-        <v>132</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1480</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="26">
-        <v>132</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="21">
-        <v>1480</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="26">
-        <v>132</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" s="21">
-        <v>1480</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="19">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="26">
-        <v>150</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="G43" s="25">
+        <v>480</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="19">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="26">
-        <v>150</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="19">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="26">
-        <v>150</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="26">
-        <v>200</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="26">
-        <v>200</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="19">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="26">
-        <v>200</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1477</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="19">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="26">
-        <v>225</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="21">
-        <v>1480</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="19">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="26">
-        <v>250</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1500</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="19">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="26">
-        <v>250</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1500</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="19">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="26">
-        <v>250</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="20">
-        <v>1500</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="26">
-        <v>250</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H35" s="20">
-        <v>1500</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="19">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="26">
-        <v>250</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1480</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="26">
-        <v>250</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="21">
-        <v>1481</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="26">
-        <v>250</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="21">
-        <v>1484</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="19">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="26">
-        <v>355</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="21">
-        <v>1490</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="26">
-        <v>355</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="21">
-        <v>1490</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="19">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="26">
-        <v>400</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="21">
-        <v>992</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="19">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="26">
-        <v>400</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="21">
-        <v>992</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="26">
-        <v>480</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="20">
+      <c r="I43" s="19">
         <v>593</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="J43" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="K43" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="L43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="3:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:L43">
-    <sortCondition ref="F4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:M43">
+    <sortCondition ref="G4"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="C2:L2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C4:L43">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="C4:M43">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>IF(MOD($C4,2)=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2977,6 +3128,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C666D5-1B15-4E01-BE37-0D45AC2926E2}">
+  <dimension ref="B1:K42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="25">
+        <v>400</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="20">
+        <v>992</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="25">
+        <v>400</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="20">
+        <v>992</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25">
+        <v>480</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19">
+        <v>593</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="25">
+        <v>55</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="25">
+        <v>37</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1470</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="25">
+        <v>55</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1475</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="25">
+        <v>90</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1482</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="25">
+        <v>90</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1485</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="25">
+        <v>90</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="25">
+        <v>90</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="25">
+        <v>75</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="25">
+        <v>75</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="25">
+        <v>132</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1485</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="25">
+        <v>132</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25">
+        <v>132</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="25">
+        <v>132</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="25">
+        <v>150</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25">
+        <v>225</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="25">
+        <v>90</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1447</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
+        <v>20</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="25">
+        <v>90</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1447</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
+        <v>21</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="25">
+        <v>90</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1447</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>22</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="25">
+        <v>90</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="25">
+        <v>250</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
+        <v>24</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="25">
+        <v>250</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>25</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="25">
+        <v>250</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="25">
+        <v>250</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1500</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="25">
+        <v>37</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1470</v>
+      </c>
+      <c r="H29" s="20">
+        <v>225</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>28</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="25">
+        <v>250</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>29</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="25">
+        <v>200</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>30</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="25">
+        <v>150</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>31</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="25">
+        <v>90</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1480</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>32</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25">
+        <v>200</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>33</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>34</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="25">
+        <v>150</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>35</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="25">
+        <v>200</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1477</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>36</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="25">
+        <v>250</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1484</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>37</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="25">
+        <v>250</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1481</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>38</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="25">
+        <v>110</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" s="20">
+        <v>1471</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>39</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="25">
+        <v>355</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="20">
+        <v>1490</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>40</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="25">
+        <v>355</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1490</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:K4 B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 C5:K42">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>IF(MOD(#REF!,2)=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(MOD(#REF!,2)=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04991E6D-6AC1-4A35-B6C9-9FD259F6B403}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3001,14 +4500,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
@@ -3443,7 +4942,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G26">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD($B4,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3453,7 +4952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14559BCA-08DB-46D3-AE10-9980371A4D4C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3461,7 +4960,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3482,262 +4981,262 @@
   <sheetData>
     <row r="1" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>42741</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>42849</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>42962</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>43563</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>43235</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>43945</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>43804</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="24" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>43696</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>43866</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>43866</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3749,7 +5248,7 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:K11">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(B3),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3759,14 +5258,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A620FA-FABE-4BED-89C4-8AF53AA7B581}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3786,203 +5285,203 @@
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>132</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>42741</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>150</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>42849</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>150</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>43866</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>200</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>44023</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>200</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>43866</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>250</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>43696</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>480</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>43804</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I10">
@@ -3992,7 +5491,7 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(B3),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4002,7 +5501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9C89F7-4E28-4AEA-9A14-EA9F59187E4F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4015,368 +5514,368 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>0</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>0</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>2</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>1</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>2</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>3</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>7</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>3</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>4</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>4</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>1</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="108.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>9</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>1</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>10</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>1</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>0</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="152.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>10</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>1</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>5</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>12</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>2</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>0</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>1</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>13</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>6</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>1</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>0</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="28" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="65.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>14</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>5</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>0</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="28" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4388,7 +5887,7 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(XEZ1048565),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4397,7 +5896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4968,7 +6467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>

--- a/Reports/Motors/Motors.xlsx
+++ b/Reports/Motors/Motors.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8328D7-F52D-4B54-97DC-94109A8EC203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C8EEE-1B5D-4E0D-8245-3D907E20B702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drive motors" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
     <sheet name="non drive motors" sheetId="5" r:id="rId3"/>
     <sheet name="CWS" sheetId="6" r:id="rId4"/>
-    <sheet name="CWS-update" sheetId="11" r:id="rId5"/>
-    <sheet name="Motor data" sheetId="15" r:id="rId6"/>
-    <sheet name="CONVEYOR DETAILS" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="Failed" sheetId="18" r:id="rId5"/>
+    <sheet name="CWS-update" sheetId="11" r:id="rId6"/>
+    <sheet name="Motor data" sheetId="15" r:id="rId7"/>
+    <sheet name="Motor MB" sheetId="17" r:id="rId8"/>
+    <sheet name="CONVEYOR DETAILS" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">CWS!$B$2:$K$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'CWS-update'!$B$2:$I$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'CONVEYOR DETAILS'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'CWS-update'!$B$2:$I$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'CONVEYOR DETAILS'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'drive motors'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="355">
   <si>
     <t>SL</t>
   </si>
@@ -909,13 +911,220 @@
   </si>
   <si>
     <t>CHP DRIVE MOTORS</t>
+  </si>
+  <si>
+    <t>3170417-1</t>
+  </si>
+  <si>
+    <t>2003240-2</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>480 kW, 593 rpm, 3 Phase, HT motor, frame:560</t>
+  </si>
+  <si>
+    <t>400 kW, 992 rpm, 3 Phase, HT motor, frame:</t>
+  </si>
+  <si>
+    <t>355 kW, 1480 rpm, 3 Phase, HT motor, frame:400</t>
+  </si>
+  <si>
+    <t>250 kW, 1500 rpm, 3 Phase, HT motor, frame:475</t>
+  </si>
+  <si>
+    <t>250 kW, 1480 rpm, 3 Phase, HT motor, frame:355</t>
+  </si>
+  <si>
+    <t>200 kW, 1480 rpm, 3 Phase, HT motor, frame:355</t>
+  </si>
+  <si>
+    <t>150 kW, 1480 rpm, 3 Phase, HT motor, frame:425</t>
+  </si>
+  <si>
+    <t>150 kW, 1480 rpm, 3 Phase, HT motor, frame:355</t>
+  </si>
+  <si>
+    <t>132 kW, 1480 rpm, 3 Phase, HT motor, frame:400</t>
+  </si>
+  <si>
+    <t>110 kW, 1480 rpm, 3 Phase, HT motor, frame:315</t>
+  </si>
+  <si>
+    <t>90 kW, 1447 rpm, 3 Phase, LT motor, frame:315</t>
+  </si>
+  <si>
+    <t>90 kW, 1480 rpm, 3 Phase, LT motor, frame:280</t>
+  </si>
+  <si>
+    <t>75 kW, 1480 rpm, 3 Phase, LT motor, frame:280</t>
+  </si>
+  <si>
+    <t>55 kW, 1480 rpm, 3 Phase, LT motor, frame:250</t>
+  </si>
+  <si>
+    <t>37 kW, 1480 rpm, 3 Phase, LT motor, frame:255</t>
+  </si>
+  <si>
+    <t>37 kW, 1480 rpm, 3 Phase, LT motor, frame:</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>MOTOR TYPE</t>
+  </si>
+  <si>
+    <t>CHP MOTORS MB</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>132 KW-HT-KBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SL:3990806-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewinding </t>
+  </si>
+  <si>
+    <t>24.04.2017</t>
+  </si>
+  <si>
+    <t>150kW-HT-CG</t>
+  </si>
+  <si>
+    <t>SL: 2003211/4</t>
+  </si>
+  <si>
+    <t>15.08.2017</t>
+  </si>
+  <si>
+    <t>200kW-HT-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SL:2003210/3</t>
+  </si>
+  <si>
+    <t>15.05.2018</t>
+  </si>
+  <si>
+    <t>200kW-HT-CG</t>
+  </si>
+  <si>
+    <t>SL: NA</t>
+  </si>
+  <si>
+    <t>06.01.2017</t>
+  </si>
+  <si>
+    <t>05.02.2020</t>
+  </si>
+  <si>
+    <t>SL:2003210/5</t>
+  </si>
+  <si>
+    <t>Conv 2.1, failed on 22.09.2019</t>
+  </si>
+  <si>
+    <t>SL:2003211/2</t>
+  </si>
+  <si>
+    <t>Rewinding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conv C2, failed on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.02.2019 </t>
+  </si>
+  <si>
+    <t>05.12.2019</t>
+  </si>
+  <si>
+    <t>480kW-HT-SLIM-CG</t>
+  </si>
+  <si>
+    <t>SL:2002043/01</t>
+  </si>
+  <si>
+    <t>Motor earth and bearing failure</t>
+  </si>
+  <si>
+    <t>GC-3, failed on 03.12.2019</t>
+  </si>
+  <si>
+    <t>DETAILES OF FAILED HT MOTORS</t>
+  </si>
+  <si>
+    <t>USE AT / LOCATION</t>
+  </si>
+  <si>
+    <t>SL NO</t>
+  </si>
+  <si>
+    <t>FAILURE DATE</t>
+  </si>
+  <si>
+    <t>Kirloskar</t>
+  </si>
+  <si>
+    <t>Conveyor 1.1 Primary drive</t>
+  </si>
+  <si>
+    <t>3000807-1</t>
+  </si>
+  <si>
+    <t>19.07.2019</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Conveyor 2.2 drive</t>
+  </si>
+  <si>
+    <t>89MSTH015</t>
+  </si>
+  <si>
+    <t>12.08.2019</t>
+  </si>
+  <si>
+    <t>Crompton Greaves</t>
+  </si>
+  <si>
+    <t>Conveyor C7 A Primary</t>
+  </si>
+  <si>
+    <t>2003211/3</t>
+  </si>
+  <si>
+    <t>Conveyor C2 A Secondary</t>
+  </si>
+  <si>
+    <t>Conveyor C5 A</t>
+  </si>
+  <si>
+    <t>Conv 2.1</t>
+  </si>
+  <si>
+    <t>21.10.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,13 +1149,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Daytona"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Daytona"/>
       <family val="2"/>
@@ -978,14 +1180,56 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Daytona"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,8 +1254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1112,11 +1362,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,28 +1428,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,33 +1443,105 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,14 +1551,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDCDCDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCDCDC"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1248,7 +1572,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFDCDCDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCDCDC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1617,1505 +1948,1507 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="18">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="26">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="29">
         <v>37</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="28">
         <v>1470</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="18">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="26">
         <f t="shared" ref="C5:C43" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="28">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="29">
         <v>37</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="28">
         <v>1470</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="28">
         <v>225</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="28">
         <v>17</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="29">
         <v>55</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="28">
         <v>1475</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="29">
         <v>55</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="28">
         <v>1480</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="28">
         <v>0</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="29">
         <v>75</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="28">
         <v>1480</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="28">
         <v>0</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="29">
         <v>75</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="28">
         <v>1480</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="28">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="29">
         <v>90</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="28">
         <v>1482</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="28">
         <v>0</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="29">
         <v>90</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="28">
         <v>1485</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="28">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="29">
         <v>90</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="28">
         <v>1480</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="28">
         <v>0</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="29">
         <v>90</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="28">
         <v>1480</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="28">
         <v>8</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="29">
         <v>90</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="28">
         <v>1447</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="28">
         <v>9</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="29">
         <v>90</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="28">
         <v>1447</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="28">
         <v>10</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="29">
         <v>90</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="28">
         <v>1447</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="28">
         <v>11</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="29">
         <v>90</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="27">
         <v>1500</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="28">
         <v>22</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="29">
         <v>90</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="28">
         <v>1480</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="28">
         <v>0</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="29">
         <v>110</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="28">
         <v>1471</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="28">
         <v>2</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="29">
         <v>132</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="28">
         <v>1485</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="28">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="29">
         <v>132</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="28">
         <v>1480</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="26">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="28">
         <v>4</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="29">
         <v>132</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="28">
         <v>1480</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="28">
         <v>5</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="29">
         <v>132</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="28">
         <v>1480</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="28">
         <v>6</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="29">
         <v>150</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="28">
         <v>1477</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="26">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="28">
         <v>21</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="29">
         <v>150</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="28">
         <v>1477</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="28">
         <v>0</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="29">
         <v>150</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="28">
         <v>1477</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="18">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="28">
         <v>20</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="29">
         <v>200</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="28">
         <v>1477</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="18">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="28">
         <v>23</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="29">
         <v>200</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="28">
         <v>1477</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="18">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="28">
         <v>25</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="29">
         <v>200</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="28">
         <v>1477</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="18">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="28">
         <v>24</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="18">
+      <c r="F30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="26">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="28">
         <v>7</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="29">
         <v>225</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="28">
         <v>1480</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="18">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="26">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="28">
         <v>12</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="29">
         <v>250</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="27">
         <v>1500</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="18">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="26">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="28">
         <v>13</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="29">
         <v>250</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="27">
         <v>1500</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="18">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="26">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="28">
         <v>14</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="29">
         <v>250</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="27">
         <v>1500</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="18">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="28">
         <v>15</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="29">
         <v>250</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="27">
         <v>1500</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="18">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="26">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="28">
         <v>19</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="29">
         <v>250</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="28">
         <v>1480</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="18">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="26">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="28">
         <v>30</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="29">
         <v>250</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="28">
         <v>1481</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="18">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="26">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="28">
         <v>29</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="29">
         <v>250</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="28">
         <v>1484</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="18">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="26">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="28">
         <v>31</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="29">
         <v>355</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="28">
         <v>1490</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="18">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="26">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="28">
         <v>32</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="29">
         <v>355</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="28">
         <v>1490</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="18">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="26">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="28">
         <v>1</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="29">
         <v>400</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="28">
         <v>992</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M41" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="18">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="26">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="28">
         <v>0</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="29">
         <v>400</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="28">
         <v>992</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="18">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="26">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="28">
         <v>16</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="29">
         <v>480</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="27">
         <v>593</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="K43" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M43" s="19"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="3:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:M43">
     <sortCondition ref="G4"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C2:M2"/>
+  </mergeCells>
   <conditionalFormatting sqref="C4:M43">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>IF(MOD($C4,2)=0,TRUE,FALSE)</formula>
@@ -3127,1332 +3460,1574 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C666D5-1B15-4E01-BE37-0D45AC2926E2}">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="29">
         <v>400</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="28">
         <v>992</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="29">
         <v>400</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="28">
         <v>992</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="29">
         <v>480</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="27">
         <v>593</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="29">
         <v>55</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29">
+        <v>37</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1470</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="26">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="29">
+        <v>55</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1475</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="29">
+        <v>90</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="28">
+        <v>1482</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="29">
+        <v>90</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1485</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="29">
+        <v>90</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="26">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="29">
+        <v>90</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="G6" s="20">
+      <c r="C13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="29">
+        <v>75</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="28">
         <v>1480</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="29">
+        <v>75</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="26">
+        <v>13</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="29">
+        <v>132</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1485</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="26">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="29">
+        <v>132</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="26">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="29">
+        <v>132</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>132</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="29">
+        <v>150</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
+        <v>225</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="C21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="29">
+        <v>90</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="28">
+        <v>1447</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="C22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="29">
+        <v>90</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="28">
+        <v>1447</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="C23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E23" s="29">
+        <v>90</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="28">
+        <v>1447</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="K23" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="26">
+        <v>22</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="29">
+        <v>90</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="26">
+        <v>23</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29">
+        <v>250</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="27">
+        <v>1500</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="29">
+        <v>250</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="27">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="26">
+        <v>25</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29">
+        <v>250</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="27">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="26">
+        <v>26</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="29">
+        <v>250</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="27">
+        <v>1500</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="26">
+        <v>27</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="29">
+        <v>37</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="28">
+        <v>1470</v>
+      </c>
+      <c r="H29" s="28">
+        <v>225</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="26">
+        <v>28</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="29">
+        <v>250</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="20">
-        <v>1470</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="G30" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="26">
+        <v>29</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="29">
+        <v>200</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="26">
+        <v>30</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="29">
+        <v>150</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="26">
+        <v>31</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="25">
-        <v>55</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1475</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="E33" s="29">
+        <v>90</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1480</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="26">
+        <v>32</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="29">
+        <v>200</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="26">
+        <v>33</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="26">
+        <v>34</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="29">
+        <v>150</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="26">
+        <v>35</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="29">
+        <v>200</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1477</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="26">
+        <v>36</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="29">
+        <v>250</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="28">
+        <v>1484</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="26">
+        <v>37</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="29">
+        <v>250</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="28">
+        <v>1481</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="26">
+        <v>38</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="25">
-        <v>90</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="E40" s="29">
+        <v>110</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="20">
-        <v>1482</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="25">
-        <v>90</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1485</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>9</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="25">
-        <v>90</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+      <c r="G40" s="28">
+        <v>1471</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="26">
+        <v>39</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="25">
-        <v>90</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="25">
-        <v>75</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
-        <v>12</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="25">
-        <v>75</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="E41" s="29">
+        <v>355</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1490</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="26">
+        <v>40</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="25">
-        <v>132</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="20">
-        <v>1485</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="25">
-        <v>132</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="25">
-        <v>132</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="25">
-        <v>132</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
-        <v>17</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="25">
-        <v>150</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="25">
-        <v>225</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="E42" s="29">
+        <v>355</v>
+      </c>
+      <c r="F42" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
-        <v>19</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="25">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1447</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
-        <v>20</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="25">
-        <v>90</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1447</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
-        <v>21</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="25">
-        <v>90</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1447</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18">
-        <v>22</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="25">
-        <v>90</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
-        <v>23</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="25">
-        <v>250</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
-        <v>24</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="25">
-        <v>250</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
-        <v>25</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="25">
-        <v>250</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18">
-        <v>26</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="25">
-        <v>250</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
-        <v>27</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="25">
-        <v>37</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1470</v>
-      </c>
-      <c r="H29" s="20">
-        <v>225</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
-        <v>28</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="25">
-        <v>250</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
-        <v>29</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="25">
-        <v>200</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
-        <v>30</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="25">
-        <v>150</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
-        <v>31</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="25">
-        <v>90</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="20">
-        <v>1480</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
-        <v>32</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="25">
-        <v>200</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18">
-        <v>33</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
-        <v>34</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="25">
-        <v>150</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
-        <v>35</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="25">
-        <v>200</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1477</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
-        <v>36</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="25">
-        <v>250</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1484</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
-        <v>37</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="25">
-        <v>250</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="20">
-        <v>1481</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="18">
-        <v>38</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="25">
-        <v>110</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" s="20">
-        <v>1471</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="18">
-        <v>39</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="25">
-        <v>355</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" s="20">
+      <c r="G42" s="28">
         <v>1490</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J41" s="19" t="s">
+      <c r="I42" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18">
-        <v>40</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="25">
-        <v>355</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1490</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4461,12 +5036,12 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:K4 B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 C5:K42">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF(MOD(#REF!,2)=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF(MOD(#REF!,2)=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4480,10 +5055,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4500,449 +5075,457 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="14">
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="23">
         <v>1460</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="23">
         <v>7.5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14">
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="23">
         <v>1460</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="23">
         <v>7.5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="23">
         <v>1460</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="23">
         <v>7.5</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14">
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="23">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="23">
         <v>1460</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="23">
         <v>7.5</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14">
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="23">
         <v>1460</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="23">
         <v>7.5</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14">
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="23">
         <v>1460</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="23">
         <v>7.5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14">
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <v>1447</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="23">
         <v>37</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14">
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="23">
         <v>8</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <v>1447</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="23">
         <v>37</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14">
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="23">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <v>1447</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="23">
         <v>37</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14">
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <v>1447</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="23">
         <v>37</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14">
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="23">
         <v>11</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23">
         <v>1447</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="23">
         <v>37</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="14">
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="23">
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
         <v>1447</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="23">
         <v>37</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="14">
+    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23">
         <v>13</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23">
         <v>1447</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="23">
         <v>37</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14">
+    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="23">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
         <v>1447</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="23">
         <v>37</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14">
+    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="23">
         <v>15</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23">
         <v>1460</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="23">
         <v>15</v>
       </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="14">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="23">
         <v>16</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="23">
         <v>15</v>
       </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="14">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="23">
         <v>17</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23">
         <v>1460</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="23">
         <v>15</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14">
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="23">
         <v>18</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <v>960</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="23">
         <v>15</v>
       </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="14">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="23">
         <v>19</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23">
         <v>960</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="23">
         <v>22</v>
       </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="14">
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="23">
         <v>20</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
         <v>960</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="23">
         <v>22</v>
       </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="14">
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23">
         <v>21</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23">
         <v>1460</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="23">
         <v>0.37</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="14">
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="23">
         <v>22</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23">
         <v>1460</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="23">
         <v>1.2</v>
       </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="14">
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="23">
         <v>23</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23">
         <v>2800</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="23">
         <v>11</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G26">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD($B4,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4957,10 +5540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K11"/>
+  <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4979,266 +5562,478 @@
     <col min="12" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="O3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>42741</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="O4" s="38">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>42849</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <v>42962</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="18">
         <v>43563</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="2:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>43235</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="18">
         <v>43945</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="O7" s="38">
+        <v>2</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>43804</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
         <v>43696</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>43866</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+      <c r="O10" s="38">
+        <v>3</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="2:20" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>43866</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
         <v>220</v>
       </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+    </row>
+    <row r="13" spans="2:20" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="O13" s="38">
+        <v>4</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="2:20" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="2:20" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="O15" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="2:20" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="15:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="O17" s="38">
+        <v>6</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="15:20" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="15:20" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="O19" s="38">
+        <v>7</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="15:20" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K11">
@@ -5248,7 +6043,7 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:K11">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(B3),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,14 +6054,188 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E05D30F-AB78-4AC7-8D65-6FE5F7FF6D37}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="49">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49">
+        <v>125</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="49">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49">
+        <v>150</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49">
+        <v>150</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="51">
+        <v>408735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="49">
+        <v>4</v>
+      </c>
+      <c r="B6" s="49">
+        <v>150</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="52">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49">
+        <v>200</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="52">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>6</v>
+      </c>
+      <c r="B8" s="49">
+        <v>200</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A620FA-FABE-4BED-89C4-8AF53AA7B581}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5283,205 +6252,282 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33">
         <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="33">
         <v>132</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="34">
         <v>42741</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="33">
         <v>150</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="34">
         <v>42849</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="33">
         <v>150</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="34">
         <v>43866</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="33">
         <v>200</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="34">
         <v>44023</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="33">
         <v>200</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="34">
         <v>43866</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="33">
         <v>250</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="34">
         <v>43696</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="33">
         <v>480</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="34">
         <v>43804</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I10">
@@ -5491,7 +6537,7 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(B3),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5501,7 +6547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9C89F7-4E28-4AEA-9A14-EA9F59187E4F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5514,368 +6560,368 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="7.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="28">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="21">
         <v>0</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="21">
         <v>1</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="21" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="21">
         <v>2</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="21" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="21">
         <v>0</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="21">
         <v>7</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="21">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="21" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="28">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="21" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="B9" s="28">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="21">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="21">
         <v>3</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="28">
+      <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="21">
         <v>3</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="21">
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="21">
         <v>4</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="28">
+      <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="21">
         <v>0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="108.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="28">
+      <c r="B12" s="21">
         <v>9</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="21">
         <v>0</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="21" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="B13" s="28">
+      <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="21">
         <v>1</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="152.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="28">
+      <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="21">
         <v>10</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="21">
         <v>5</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="21" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="28">
+      <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="21">
         <v>1</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="28">
+      <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="21">
         <v>6</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="21">
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="21" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="65.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="28">
+      <c r="B17" s="21">
         <v>14</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="21">
         <v>5</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="21">
         <v>0</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="21" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5887,7 +6933,7 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H17">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(XEZ1048565),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,7 +6942,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40CFF7-C7A9-4E95-B671-79E81E41240D}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="35">
+        <f>SUM(C3:C18)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6465,244 +7734,4 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Reports/Motors/Motors.xlsx
+++ b/Reports/Motors/Motors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C8EEE-1B5D-4E0D-8245-3D907E20B702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F8A18-E2DA-4274-9968-454244F7EF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drive motors" sheetId="1" r:id="rId1"/>
@@ -845,9 +845,6 @@
     <t>A new spare motor is available.</t>
   </si>
   <si>
-    <t>Work order has been placed for rewinding of 1 BD motor.</t>
-  </si>
-  <si>
     <t>Status of Drive motors of CHP</t>
   </si>
   <si>
@@ -871,15 +868,7 @@
 ETP Pump : 1 no</t>
   </si>
   <si>
-    <t>Spare 1 no motor is only compatible with pump and conveyor. 
-Work order has been placed for all 5 BD motors out of which 3 nos under repair at pvt workshop.</t>
-  </si>
-  <si>
     <t>Spare 1 no is only comatible with ETP pump which is presently running with 90kW motor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125kW motor was originally installed in pump house, it can be fitted in conv 1.1 and 1.2.
-Rewinding proposal for 1 BD motor is at the ordering stage </t>
   </si>
   <si>
     <t>CAPACITY (kW)</t>
@@ -892,15 +881,9 @@
     <t xml:space="preserve">1 no motor under repair at CWS </t>
   </si>
   <si>
-    <t>2 nos BD motors under repair at CWS, Other 2  nos is at CHP. Proposal has been initiated for both. One proposal is at ordering stage other is at tendering stage.</t>
-  </si>
-  <si>
     <t>RATING (kW)</t>
   </si>
   <si>
-    <t>2 nos under repair at CWS, 1 no at CHP for which rewinding estimated has been processed. It is at tendering stage.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 spare motor repaired at CWS is available at CHP. </t>
   </si>
   <si>
@@ -1118,6 +1101,25 @@
   </si>
   <si>
     <t>21.10.2019</t>
+  </si>
+  <si>
+    <t>125kW motor was originally installed in pump house, it can be fitted in conv 1.1 and 1.2.
+1 BD motor is under repainring with M/s M N Ent.</t>
+  </si>
+  <si>
+    <t>2 nos BD motors under repair at CWS, 1 no is under repair with M/s M N Enterp. 1 no is at CHP.</t>
+  </si>
+  <si>
+    <t>1 nos under repair at CWS, 1 no at CHP for which rewinding estimated has been processed. It is at tendering stage.
+1 no spare motor is available at CHP.</t>
+  </si>
+  <si>
+    <t>Spare: 1 no compatible with conv another compatible for plough.
+4 nos under repair with M/s National Enterp.
+1 no repaired by M/s National electrical is faulty.</t>
+  </si>
+  <si>
+    <t>1 no under repair with M/s National Enterp.</t>
   </si>
 </sst>
 </file>
@@ -1501,33 +1503,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1542,6 +1517,33 @@
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1972,19 +1974,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="25" t="s">
@@ -3704,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C666D5-1B15-4E01-BE37-0D45AC2926E2}">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3724,18 +3726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
@@ -3856,7 +3858,7 @@
         <v>79</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>80</v>
@@ -3982,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>28</v>
@@ -4782,7 +4784,7 @@
         <v>96</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="J34" s="27" t="s">
         <v>101</v>
@@ -4830,7 +4832,7 @@
         <v>96</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>101</v>
@@ -4862,7 +4864,7 @@
         <v>96</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J37" s="27" t="s">
         <v>101</v>
@@ -5075,14 +5077,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
@@ -5543,7 +5545,7 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5564,16 +5566,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
@@ -5610,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>133</v>
@@ -5652,10 +5654,10 @@
       </c>
       <c r="P4" s="38"/>
       <c r="Q4" s="38" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -5687,7 +5689,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -5760,13 +5762,13 @@
         <v>2</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -5800,7 +5802,7 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -5869,13 +5871,13 @@
         <v>3</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="R10" s="38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -5909,7 +5911,7 @@
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -5928,13 +5930,13 @@
         <v>4</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -5943,7 +5945,7 @@
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -5951,19 +5953,19 @@
     </row>
     <row r="15" spans="2:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="O15" s="38" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q15" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="S15" s="38" t="s">
         <v>321</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>326</v>
       </c>
       <c r="T15" s="38"/>
     </row>
@@ -5971,7 +5973,7 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
@@ -5982,16 +5984,16 @@
         <v>6</v>
       </c>
       <c r="P17" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="S17" s="38" t="s">
         <v>324</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="S17" s="38" t="s">
-        <v>329</v>
       </c>
       <c r="T17" s="38"/>
     </row>
@@ -5999,11 +6001,11 @@
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="R18" s="38"/>
       <c r="S18" s="38" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="T18" s="38"/>
     </row>
@@ -6012,16 +6014,16 @@
         <v>7</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="R19" s="38" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S19" s="38" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T19" s="38"/>
     </row>
@@ -6029,7 +6031,7 @@
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
@@ -6057,166 +6059,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E05D30F-AB78-4AC7-8D65-6FE5F7FF6D37}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40">
+        <v>125</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="84" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="E3" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40">
+        <v>150</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="B5" s="40">
+        <v>150</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="42">
+        <v>408735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49">
-        <v>125</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="B6" s="40">
+        <v>150</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49">
-        <v>150</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D6" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="E6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="43">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40">
+        <v>200</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49">
-        <v>150</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="E7" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="43">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40">
+        <v>200</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="E8" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>349</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" s="51">
-        <v>408735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
-        <v>4</v>
-      </c>
-      <c r="B6" s="49">
-        <v>150</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="52">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
-        <v>5</v>
-      </c>
-      <c r="B7" s="49">
-        <v>200</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="52">
-        <v>43541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
-        <v>6</v>
-      </c>
-      <c r="B8" s="49">
-        <v>200</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +6239,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -6266,16 +6270,16 @@
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6284,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>4</v>
@@ -6554,8 +6558,8 @@
   </sheetPr>
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6572,22 +6576,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>231</v>
@@ -6648,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
@@ -6694,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
@@ -6720,7 +6724,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -6734,16 +6738,16 @@
         <v>242</v>
       </c>
       <c r="F9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="130.5" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F10" s="21">
         <v>0</v>
@@ -6763,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
@@ -6786,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="108.75" x14ac:dyDescent="0.2">
@@ -6807,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="87" x14ac:dyDescent="0.2">
@@ -6830,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="152.25" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="195.75" x14ac:dyDescent="0.2">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -6844,16 +6848,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F14" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
@@ -6876,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.5" x14ac:dyDescent="0.2">
@@ -6890,7 +6894,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
@@ -6913,7 +6917,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
@@ -6922,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6951,23 +6955,26 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6975,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -6986,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -6997,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -7008,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -7019,7 +7026,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -7030,7 +7037,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -7041,7 +7048,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -7052,7 +7059,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -7063,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -7074,7 +7081,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7085,7 +7092,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -7096,7 +7103,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -7107,7 +7114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -7118,7 +7125,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -7129,7 +7136,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -7140,17 +7147,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="46"/>
+      <c r="A19" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="52"/>
       <c r="C19" s="35">
         <f>SUM(C3:C18)</f>
         <v>40</v>
